--- a/testData/keywords.xlsx
+++ b/testData/keywords.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>visit_url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,14 @@
   </si>
   <si>
     <t>switch_alert_dismiss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>download_file(locationType,locatorExpression)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -814,6 +822,14 @@
       </c>
       <c r="B26" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/testData/keywords.xlsx
+++ b/testData/keywords.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>visit_url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,22 @@
   </si>
   <si>
     <t>下载文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过链接文字抓取元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过链接部分文字抓取元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_link(link_word)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_link_partial(partial_word)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -830,6 +846,22 @@
       </c>
       <c r="B27" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
